--- a/src/registro.nacional.v.1.xlsx
+++ b/src/registro.nacional.v.1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="120" windowWidth="14115" windowHeight="8670"/>
@@ -549,9 +549,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="0000####"/>
-    <numFmt numFmtId="168" formatCode="00#"/>
+    <numFmt numFmtId="166" formatCode="00#"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -598,7 +598,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -621,7 +621,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1001,9 +1001,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
